--- a/accuracy_test.xlsx
+++ b/accuracy_test.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,313 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>try=0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>try=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9076923076923077</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9010989010989011</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8637362637362638</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.8593406593406593</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8703296703296703</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8593406593406593</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8615384615384616</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.865934065934066</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8549450549450549</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8681318681318682</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8505494505494505</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.8549450549450549</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8681318681318682</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.8549450549450549</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8637362637362638</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.865934065934066</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8549450549450549</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.865934065934066</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8637362637362638</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.8637362637362638</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.8505494505494505</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.8505494505494505</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8549450549450549</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.8637362637362638</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8637362637362638</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8505494505494505</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.8483516483516483</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8505494505494505</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.8505494505494505</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.8549450549450549</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.8593406593406593</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.8505494505494505</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.8549450549450549</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>